--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -14,37 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>初期额度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>RODNUM</t>
   </si>
   <si>
-    <t>HZ_ZSHY</t>
-  </si>
-  <si>
-    <t>HZ_ZD</t>
-  </si>
-  <si>
-    <t>ZD_ZSHY</t>
-  </si>
-  <si>
-    <t>ZD_DL</t>
-  </si>
-  <si>
-    <t>DL_HY</t>
-  </si>
-  <si>
-    <t>发放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回收</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>余额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>BASENUM</t>
   </si>
 </sst>
 </file>
@@ -87,8 +62,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -393,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -407,106 +385,36 @@
     <col min="5" max="6" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1000</v>
-      </c>
-      <c r="C2">
-        <v>15000</v>
-      </c>
-      <c r="D2">
-        <v>2000</v>
-      </c>
-      <c r="E2">
-        <v>10000</v>
-      </c>
-      <c r="F2">
-        <v>500</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>111222</v>
+      </c>
+      <c r="B2" s="1">
+        <v>111222</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>40</v>
-      </c>
-      <c r="C3">
-        <v>200</v>
-      </c>
-      <c r="D3">
-        <v>50</v>
-      </c>
-      <c r="E3">
-        <v>300</v>
-      </c>
-      <c r="F3">
-        <v>60</v>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>111333</v>
+      </c>
+      <c r="B3" s="1">
+        <v>111333</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>-10</v>
-      </c>
-      <c r="C4">
-        <v>-100</v>
-      </c>
-      <c r="D4">
-        <v>-20</v>
-      </c>
-      <c r="E4">
-        <v>-200</v>
-      </c>
-      <c r="F4">
-        <v>-30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <f>SUM(B2:B4)</f>
-        <v>1030</v>
-      </c>
-      <c r="C5">
-        <f t="shared" ref="C5:F5" si="0">SUM(C2:C4)</f>
-        <v>15100</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>2030</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>10100</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>530</v>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>111444</v>
+      </c>
+      <c r="B4" s="1">
+        <v>111444</v>
       </c>
     </row>
   </sheetData>
